--- a/target/test-classes/testData.xlsx
+++ b/target/test-classes/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\NavyMaster\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5C07E-D7C3-44FC-BF77-E1FD105B034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA8FC5-DF64-4A03-82C6-7FF510667BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927946</v>
+        <v>521927948</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
